--- a/dnd-shinwa/checklist.xlsx
+++ b/dnd-shinwa/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/dnd-shinwa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/japanese-collectors-list/dnd-shinwa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E2089A6-BF74-4C4E-9E30-95F782C70D18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9879D64A-1EEB-D14D-AE9A-9BEC05ED1840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6F766542-94E2-6A47-9375-43EE8A6BD9BD}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="25480" windowHeight="16360" xr2:uid="{6F766542-94E2-6A47-9375-43EE8A6BD9BD}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="121">
   <si>
     <t>year</t>
   </si>
@@ -381,6 +381,21 @@
   </si>
   <si>
     <t>Shinwa</t>
+  </si>
+  <si>
+    <t>product_code</t>
+  </si>
+  <si>
+    <t>BM1,BS1</t>
+  </si>
+  <si>
+    <t>BS2</t>
+  </si>
+  <si>
+    <t>XS1</t>
+  </si>
+  <si>
+    <t>XS2</t>
   </si>
 </sst>
 </file>
@@ -424,9 +439,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED5E41A-1611-5C43-9083-55930372F3F5}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D54"/>
+      <selection activeCell="A30" sqref="A1:G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -753,7 +769,7 @@
     <col min="3" max="3" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -772,8 +788,11 @@
       <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1985</v>
       </c>
@@ -789,50 +808,59 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>1985</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1985</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2">
+        <v>702706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>1986</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1987</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1989</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>115</v>
@@ -840,481 +868,673 @@
       <c r="F5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>1986</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1986</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1986</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1986</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1986</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1986</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1986</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1986</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1986</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1986</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="2">
+        <v>700702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>1987</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1987</v>
+      </c>
+      <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="D17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1987</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1987</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1987</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1987</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1987</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1987</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1987</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1987</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1987</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="2">
+        <v>701709</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>1988</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B27" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C27" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+      <c r="D27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1988</v>
+      </c>
+      <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C28" t="s">
         <v>51</v>
       </c>
-      <c r="D14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" t="s">
-        <v>115</v>
-      </c>
-      <c r="F15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" t="s">
-        <v>115</v>
-      </c>
-      <c r="F21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+      <c r="D28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1988</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1988</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1988</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1988</v>
+      </c>
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="2">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1988</v>
+      </c>
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="2">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1988</v>
+      </c>
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="2">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1989</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1989</v>
+      </c>
+      <c r="B36" t="s">
         <v>35</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C36" t="s">
         <v>60</v>
       </c>
-      <c r="D23" t="s">
-        <v>115</v>
-      </c>
-      <c r="F23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" t="s">
-        <v>115</v>
-      </c>
-      <c r="F24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" t="s">
-        <v>115</v>
-      </c>
-      <c r="F26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+      <c r="D36" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1989</v>
+      </c>
+      <c r="B37" t="s">
         <v>39</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C37" t="s">
         <v>64</v>
       </c>
-      <c r="D27" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+      <c r="D37" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1989</v>
+      </c>
+      <c r="B38" t="s">
         <v>40</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C38" t="s">
         <v>65</v>
       </c>
-      <c r="D28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" t="s">
-        <v>115</v>
-      </c>
-      <c r="F29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" t="s">
-        <v>115</v>
-      </c>
-      <c r="F30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" t="s">
-        <v>115</v>
-      </c>
-      <c r="F31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" t="s">
-        <v>115</v>
-      </c>
-      <c r="F32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" t="s">
-        <v>115</v>
-      </c>
-      <c r="F33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" t="s">
-        <v>115</v>
-      </c>
-      <c r="F34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" t="s">
-        <v>115</v>
-      </c>
-      <c r="F35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" t="s">
-        <v>115</v>
-      </c>
-      <c r="F36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" t="s">
-        <v>115</v>
-      </c>
-      <c r="F37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" t="s">
-        <v>85</v>
-      </c>
       <c r="D38" t="s">
         <v>115</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="G38">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1989</v>
+      </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D39" t="s">
         <v>115</v>
@@ -1322,13 +1542,19 @@
       <c r="F39" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" s="2">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1989</v>
+      </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D40" t="s">
         <v>115</v>
@@ -1336,13 +1562,19 @@
       <c r="F40" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" s="2">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1989</v>
+      </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D41" t="s">
         <v>115</v>
@@ -1350,16 +1582,19 @@
       <c r="F41" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" s="2">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D42" t="s">
         <v>115</v>
@@ -1367,16 +1602,19 @@
       <c r="F42" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="2">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D43" t="s">
         <v>115</v>
@@ -1384,16 +1622,19 @@
       <c r="F43" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" s="2">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1989</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D44" t="s">
         <v>115</v>
@@ -1401,16 +1642,19 @@
       <c r="F44" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" s="2">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1989</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C45" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D45" t="s">
         <v>115</v>
@@ -1418,16 +1662,19 @@
       <c r="F45" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" s="2">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1989</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C46" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D46" t="s">
         <v>115</v>
@@ -1435,16 +1682,19 @@
       <c r="F46" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" s="2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1989</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C47" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D47" t="s">
         <v>115</v>
@@ -1452,16 +1702,19 @@
       <c r="F47" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" s="2">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1989</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C48" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D48" t="s">
         <v>115</v>
@@ -1469,50 +1722,59 @@
       <c r="F48" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" s="2">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="C49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" t="s">
+        <v>115</v>
+      </c>
+      <c r="F49" t="s">
+        <v>70</v>
+      </c>
+      <c r="G49">
         <v>109</v>
       </c>
-      <c r="D49" t="s">
-        <v>115</v>
-      </c>
-      <c r="F49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="C50" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="D50" t="s">
         <v>115</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="G50">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D51" t="s">
         <v>115</v>
@@ -1520,33 +1782,39 @@
       <c r="F51" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51" s="2">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>1989</v>
+        <v>1991</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="C52" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="D52" t="s">
         <v>115</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="G52" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="D53" t="s">
         <v>115</v>
@@ -1555,7 +1823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1991</v>
       </c>
@@ -1571,8 +1839,14 @@
       <c r="F54" t="s">
         <v>13</v>
       </c>
+      <c r="G54" s="2">
+        <v>813</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G54">
+    <sortCondition ref="A2:A54"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>